--- a/Statystyki_2018/Template/otrc.xlsx
+++ b/Statystyki_2018/Template/otrc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B645123-4AC6-4083-997D-FAD78E398A15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1EE64-3972-448C-8794-ED64C264B11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32415" yWindow="1080" windowWidth="17280" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Opis</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Imie</t>
+  </si>
+  <si>
+    <t>Cz</t>
+  </si>
+  <si>
+    <t>CGg</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +231,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,7 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,144 +574,148 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -716,171 +729,170 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="4"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="8"/>
+      <c r="X2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="6"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
+  <mergeCells count="26">
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -890,10 +902,19 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="Q1:V1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -907,87 +928,97 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="P2" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1002,75 +1033,87 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
